--- a/Final Exam/Optimising Business Decisions.xlsx
+++ b/Final Exam/Optimising Business Decisions.xlsx
@@ -8,13 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravin.kunhiraman\Documents\Pravin\MITAnalyticsEdge\MITAnalyticsEdge\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0161FA08-FBDE-400C-9A55-EFE540E0DBBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D60F3-E94B-4C42-826A-75B1F4FF8388}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70835619-BC1F-4C45-9BC6-74779DCD529D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{70835619-BC1F-4C45-9BC6-74779DCD529D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$20:$K$22</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$21:$K$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$22:$K$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$25:$B$29</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$30:$B$39</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$D$15</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$N$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$N$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$25:$D$29</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$D$30:$D$39</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -553,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C5C4F-B56E-41DF-9EC4-1284BB3177E4}">
-  <dimension ref="A2:O39"/>
+  <dimension ref="A2:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,12 +605,12 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -587,7 +628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -607,7 +648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -627,12 +668,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -650,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -670,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,28 +730,32 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f>885*6</f>
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -724,26 +769,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f>SUM(B4:F5)*8</f>
+        <f>SUM(B20:K22)*8</f>
         <v>7080</v>
       </c>
       <c r="C15">
         <f>(B20+C20)*B9+(D20+E20)*C9+(F20+G20)*D9+(H20+I20)*E9+(J20+K20)*F9+(B21+C21)*B10+(D21+E21)*C10+(F21+G21)*D10+(H21+I21)*E10+(J21+K21)*F10+(B22+C22)*B11+(D22+E22)*C11+(F22+G22)*D11+(H22+I22)*E11+(J22+K22)*F11</f>
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="D15" s="5">
         <f>B15-C15</f>
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -775,35 +820,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>95</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>15</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>35</v>
+      </c>
+      <c r="K20" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>50</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
       <c r="N21">
         <v>50</v>
       </c>
@@ -811,20 +896,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6">
+        <v>55</v>
+      </c>
+      <c r="E22" s="6">
+        <v>30</v>
+      </c>
+      <c r="F22" s="6">
+        <v>55</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>55</v>
+      </c>
+      <c r="I22" s="6">
+        <v>25</v>
+      </c>
+      <c r="J22" s="6">
+        <v>45</v>
+      </c>
+      <c r="K22" s="6">
+        <v>55</v>
+      </c>
       <c r="N22">
         <v>55</v>
       </c>
@@ -832,18 +937,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25">
         <f>SUM(B22:C22)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -852,10 +957,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>SUM(D22:E22)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -864,10 +969,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(F22:G22)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -875,11 +980,41 @@
       <c r="D27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" s="6">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6">
+        <v>55</v>
+      </c>
+      <c r="M27" s="6">
+        <v>55</v>
+      </c>
+      <c r="N27" s="6">
+        <v>30</v>
+      </c>
+      <c r="O27" s="6">
+        <v>55</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>55</v>
+      </c>
+      <c r="R27" s="6">
+        <v>25</v>
+      </c>
+      <c r="S27" s="6">
+        <v>45</v>
+      </c>
+      <c r="T27" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>SUM(H22:I22)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -887,11 +1022,41 @@
       <c r="D28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K28" s="6">
+        <v>20</v>
+      </c>
+      <c r="L28" s="6">
+        <v>55</v>
+      </c>
+      <c r="M28" s="6">
+        <v>55</v>
+      </c>
+      <c r="N28" s="6">
+        <v>30</v>
+      </c>
+      <c r="O28" s="6">
+        <v>55</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>55</v>
+      </c>
+      <c r="R28" s="6">
+        <v>25</v>
+      </c>
+      <c r="S28" s="6">
+        <v>45</v>
+      </c>
+      <c r="T28" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>SUM(J22:K22)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -899,14 +1064,44 @@
       <c r="D29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K29" s="6">
+        <v>20</v>
+      </c>
+      <c r="L29" s="6">
+        <v>55</v>
+      </c>
+      <c r="M29" s="6">
+        <v>55</v>
+      </c>
+      <c r="N29" s="6">
+        <v>30</v>
+      </c>
+      <c r="O29" s="6">
+        <v>55</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>55</v>
+      </c>
+      <c r="R29" s="6">
+        <v>25</v>
+      </c>
+      <c r="S29" s="6">
+        <v>45</v>
+      </c>
+      <c r="T29" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
         <f>SUM(B20:B22)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -916,10 +1111,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>SUM(C20:C22)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -929,10 +1124,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>SUM(D20:D22)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -945,7 +1140,7 @@
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>SUM(E20:E22)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
@@ -958,7 +1153,7 @@
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <f>SUM(F20:F22)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -984,7 +1179,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>SUM(H20:H22)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -997,7 +1192,7 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <f>SUM(I20:I22)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
@@ -1010,7 +1205,7 @@
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <f>SUM(J20:J22)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
@@ -1023,7 +1218,7 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>SUM(K20:K22)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
